--- a/R/data/SPC_test_data_forskellige.xlsx
+++ b/R/data/SPC_test_data_forskellige.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://regionh-my.sharepoint.com/personal/johan_reventlow_regionh_dk/Documents/4_R/claude_spc/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_D60B3712F656F93E2E7B4D7A19E984F0496EE2DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE827AE-0E34-45A1-A25D-316325F1FBBC}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_D60B3712F656F93E2E7B4D7A19E984F0496EE2DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40F02229-D424-4BE8-B217-3A6250B28A2D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Nr</t>
   </si>
@@ -262,15 +262,120 @@
   </si>
   <si>
     <t>Uge lang md</t>
+  </si>
+  <si>
+    <t>3. januar 2022</t>
+  </si>
+  <si>
+    <t>10. januar 2022</t>
+  </si>
+  <si>
+    <t>17. januar 2022</t>
+  </si>
+  <si>
+    <t>24. januar 2022</t>
+  </si>
+  <si>
+    <t>31. januar 2022</t>
+  </si>
+  <si>
+    <t>7. februar 2022</t>
+  </si>
+  <si>
+    <t>14. februar 2022</t>
+  </si>
+  <si>
+    <t>21. februar 2022</t>
+  </si>
+  <si>
+    <t>28. februar 2022</t>
+  </si>
+  <si>
+    <t>7. marts 2022</t>
+  </si>
+  <si>
+    <t>14. marts 2022</t>
+  </si>
+  <si>
+    <t>21. marts 2022</t>
+  </si>
+  <si>
+    <t>28. marts 2022</t>
+  </si>
+  <si>
+    <t>4. april 2022</t>
+  </si>
+  <si>
+    <t>11. april 2022</t>
+  </si>
+  <si>
+    <t>18. april 2022</t>
+  </si>
+  <si>
+    <t>25. april 2022</t>
+  </si>
+  <si>
+    <t>2. maj 2022</t>
+  </si>
+  <si>
+    <t>9. maj 2022</t>
+  </si>
+  <si>
+    <t>16. maj 2022</t>
+  </si>
+  <si>
+    <t>23. maj 2022</t>
+  </si>
+  <si>
+    <t>30. maj 2022</t>
+  </si>
+  <si>
+    <t>6. juni 2022</t>
+  </si>
+  <si>
+    <t>13. juni 2022</t>
+  </si>
+  <si>
+    <t>20. juni 2022</t>
+  </si>
+  <si>
+    <t>27. juni 2022</t>
+  </si>
+  <si>
+    <t>4. juli 2022</t>
+  </si>
+  <si>
+    <t>11. juli 2022</t>
+  </si>
+  <si>
+    <t>18. juli 2022</t>
+  </si>
+  <si>
+    <t>25. juli 2022</t>
+  </si>
+  <si>
+    <t>1. august 2022</t>
+  </si>
+  <si>
+    <t>8. august 2022</t>
+  </si>
+  <si>
+    <t>15. august 2022</t>
+  </si>
+  <si>
+    <t>22. august 2022</t>
+  </si>
+  <si>
+    <t>29. august 2022</t>
+  </si>
+  <si>
+    <t>5. september 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,16 +446,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,27 +659,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -594,11 +698,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>44564</v>
       </c>
-      <c r="C2" s="5">
-        <v>44564</v>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -617,11 +721,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>44571</v>
       </c>
-      <c r="C3" s="5">
-        <v>44571</v>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -640,11 +744,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>44578</v>
       </c>
-      <c r="C4" s="5">
-        <v>44578</v>
+      <c r="C4" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -663,11 +767,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>44585</v>
       </c>
-      <c r="C5" s="5">
-        <v>44585</v>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -686,11 +790,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>44592</v>
       </c>
-      <c r="C6" s="5">
-        <v>44592</v>
+      <c r="C6" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -709,11 +813,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>44599</v>
       </c>
-      <c r="C7" s="5">
-        <v>44599</v>
+      <c r="C7" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -732,11 +836,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>44606</v>
       </c>
-      <c r="C8" s="5">
-        <v>44606</v>
+      <c r="C8" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
@@ -755,11 +859,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>44613</v>
       </c>
-      <c r="C9" s="5">
-        <v>44613</v>
+      <c r="C9" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
@@ -778,11 +882,11 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>44620</v>
       </c>
-      <c r="C10" s="5">
-        <v>44620</v>
+      <c r="C10" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>22</v>
@@ -801,11 +905,11 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>44627</v>
       </c>
-      <c r="C11" s="5">
-        <v>44627</v>
+      <c r="C11" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -824,11 +928,11 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>44634</v>
       </c>
-      <c r="C12" s="5">
-        <v>44634</v>
+      <c r="C12" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -847,11 +951,11 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>44641</v>
       </c>
-      <c r="C13" s="5">
-        <v>44641</v>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>28</v>
@@ -870,11 +974,11 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>44648</v>
       </c>
-      <c r="C14" s="5">
-        <v>44648</v>
+      <c r="C14" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>30</v>
@@ -893,11 +997,11 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>44655</v>
       </c>
-      <c r="C15" s="5">
-        <v>44655</v>
+      <c r="C15" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
@@ -916,11 +1020,11 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>44662</v>
       </c>
-      <c r="C16" s="5">
-        <v>44662</v>
+      <c r="C16" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -939,11 +1043,11 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>44669</v>
       </c>
-      <c r="C17" s="5">
-        <v>44669</v>
+      <c r="C17" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>36</v>
@@ -962,11 +1066,11 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>44676</v>
       </c>
-      <c r="C18" s="5">
-        <v>44676</v>
+      <c r="C18" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>38</v>
@@ -985,11 +1089,11 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>44683</v>
       </c>
-      <c r="C19" s="5">
-        <v>44683</v>
+      <c r="C19" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>40</v>
@@ -1008,11 +1112,11 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <v>44690</v>
       </c>
-      <c r="C20" s="5">
-        <v>44690</v>
+      <c r="C20" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>42</v>
@@ -1031,11 +1135,11 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>44697</v>
       </c>
-      <c r="C21" s="5">
-        <v>44697</v>
+      <c r="C21" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>44</v>
@@ -1054,11 +1158,11 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>44704</v>
       </c>
-      <c r="C22" s="5">
-        <v>44704</v>
+      <c r="C22" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>46</v>
@@ -1077,11 +1181,11 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <v>44711</v>
       </c>
-      <c r="C23" s="5">
-        <v>44711</v>
+      <c r="C23" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>48</v>
@@ -1100,11 +1204,11 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
         <v>44718</v>
       </c>
-      <c r="C24" s="5">
-        <v>44718</v>
+      <c r="C24" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>50</v>
@@ -1123,11 +1227,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="5">
         <v>44725</v>
       </c>
-      <c r="C25" s="5">
-        <v>44725</v>
+      <c r="C25" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>52</v>
@@ -1146,11 +1250,11 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="5">
         <v>44732</v>
       </c>
-      <c r="C26" s="5">
-        <v>44732</v>
+      <c r="C26" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>54</v>
@@ -1169,11 +1273,11 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="5">
         <v>44739</v>
       </c>
-      <c r="C27" s="5">
-        <v>44739</v>
+      <c r="C27" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>56</v>
@@ -1192,11 +1296,11 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="5">
         <v>44746</v>
       </c>
-      <c r="C28" s="5">
-        <v>44746</v>
+      <c r="C28" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>58</v>
@@ -1215,11 +1319,11 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="5">
         <v>44753</v>
       </c>
-      <c r="C29" s="5">
-        <v>44753</v>
+      <c r="C29" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>60</v>
@@ -1238,11 +1342,11 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="5">
         <v>44760</v>
       </c>
-      <c r="C30" s="5">
-        <v>44760</v>
+      <c r="C30" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>62</v>
@@ -1261,11 +1365,11 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="5">
         <v>44767</v>
       </c>
-      <c r="C31" s="5">
-        <v>44767</v>
+      <c r="C31" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>64</v>
@@ -1284,11 +1388,11 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="5">
         <v>44774</v>
       </c>
-      <c r="C32" s="5">
-        <v>44774</v>
+      <c r="C32" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>66</v>
@@ -1307,11 +1411,11 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="5">
         <v>44781</v>
       </c>
-      <c r="C33" s="5">
-        <v>44781</v>
+      <c r="C33" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>68</v>
@@ -1330,11 +1434,11 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="5">
         <v>44788</v>
       </c>
-      <c r="C34" s="5">
-        <v>44788</v>
+      <c r="C34" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>70</v>
@@ -1353,11 +1457,11 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="5">
         <v>44795</v>
       </c>
-      <c r="C35" s="5">
-        <v>44795</v>
+      <c r="C35" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>72</v>
@@ -1376,11 +1480,11 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="5">
         <v>44802</v>
       </c>
-      <c r="C36" s="5">
-        <v>44802</v>
+      <c r="C36" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>74</v>
@@ -1399,11 +1503,11 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="5">
         <v>44809</v>
       </c>
-      <c r="C37" s="5">
-        <v>44809</v>
+      <c r="C37" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>76</v>
